--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -850,7 +850,7 @@
 </t>
   </si>
   <si>
-    <t>Who collected the medication</t>
+    <t>Person collecting the medication</t>
   </si>
   <si>
     <t>Identifies the person who picked up the medication.  This will usually be a patient or their caregiver, but some cases exist where it can be a healthcare professional.</t>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$48</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="339">
   <si>
     <t>Path</t>
   </si>
@@ -312,33 +312,54 @@
     <t>MedicationDispense.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>refillNum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-pdex/StructureDefinition/DispenseRefill}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>MedicationDispense.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationDispense.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -346,6 +367,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -402,7 +426,7 @@
     <t>MedicationDispense.status</t>
   </si>
   <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown</t>
+    <t>completed</t>
   </si>
   <si>
     <t>A code specifying the state of the set of dispense events.</t>
@@ -464,7 +488,7 @@
 </t>
   </si>
   <si>
-    <t>Type of medication dispense</t>
+    <t>Type of dispense action</t>
   </si>
   <si>
     <t>Indicates the type of medication dispense (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
@@ -473,9 +497,6 @@
     <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
   </si>
   <si>
-    <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
   </si>
   <si>
@@ -485,10 +506,6 @@
     <t>MedicationDispense.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
-  </si>
-  <si>
     <t>What medication was supplied</t>
   </si>
   <si>
@@ -504,6 +521,13 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -519,10 +543,19 @@
     <t>RXD-2-Dispense/Give Code</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>Billing, service, product, or drug code</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex/ValueSet/FDANationalDrugCode</t>
+  </si>
+  <si>
     <t>MedicationDispense.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -622,6 +655,9 @@
     <t>MedicationDispense.performer.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -666,7 +702,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/davinci-pdex/ImplementationGuide/davinci-pdex/StructureDefinition/pdex-device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -751,9 +787,6 @@
 </t>
   </si>
   <si>
-    <t>Amount dispensed</t>
-  </si>
-  <si>
     <t>The amount of medication that has been dispensed. Includes unit of measure.</t>
   </si>
   <si>
@@ -769,7 +802,7 @@
     <t>MedicationDispense.daysSupply</t>
   </si>
   <si>
-    <t>Amount of medication expressed as a timing amount</t>
+    <t>Medication expressed as a timing amount</t>
   </si>
   <si>
     <t>The amount of medication expressed as a timing amount.</t>
@@ -846,11 +879,11 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner)
+    <t xml:space="preserve">Reference(Patient|Practitioner)
 </t>
   </si>
   <si>
-    <t>Person collecting the medication</t>
+    <t>Who collected the medication</t>
   </si>
   <si>
     <t>Identifies the person who picked up the medication.  This will usually be a patient or their caregiver, but some cases exist where it can be a healthcare professional.</t>
@@ -1193,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1203,7 +1236,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1212,7 +1245,7 @@
     <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.36328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2166,7 +2199,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2185,17 +2218,15 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -2232,16 +2263,14 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>100</v>
@@ -2262,7 +2291,7 @@
         <v>41</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>41</v>
@@ -2276,43 +2305,41 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N10" t="s" s="2">
         <v>105</v>
       </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>41</v>
       </c>
@@ -2360,7 +2387,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2369,7 +2396,7 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>101</v>
@@ -2396,7 +2423,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2409,13 +2436,13 @@
         <v>41</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>109</v>
@@ -2426,7 +2453,9 @@
       <c r="M11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>41</v>
       </c>
@@ -2474,7 +2503,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2486,19 +2515,19 @@
         <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -2506,7 +2535,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2529,15 +2558,17 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>41</v>
@@ -2586,7 +2617,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2601,16 +2632,16 @@
         <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AM12" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>41</v>
@@ -2618,7 +2649,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2626,32 +2657,30 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>41</v>
@@ -2676,11 +2705,13 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X13" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y13" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2698,13 +2729,13 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>41</v>
@@ -2713,16 +2744,16 @@
         <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="AL13" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>41</v>
@@ -2730,7 +2761,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2738,7 +2769,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
@@ -2747,21 +2778,23 @@
         <v>41</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2786,13 +2819,11 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
@@ -2810,10 +2841,10 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>50</v>
@@ -2825,16 +2856,16 @@
         <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -2842,7 +2873,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2865,17 +2896,15 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2900,13 +2929,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -2924,7 +2953,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2939,10 +2968,10 @@
         <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -2956,7 +2985,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2964,7 +2993,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>50</v>
@@ -2976,19 +3005,19 @@
         <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3014,13 +3043,11 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -3038,10 +3065,10 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>50</v>
@@ -3053,24 +3080,24 @@
         <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>160</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3093,16 +3120,16 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3128,34 +3155,32 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>50</v>
@@ -3167,32 +3192,34 @@
         <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>50</v>
@@ -3204,18 +3231,20 @@
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3240,13 +3269,11 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -3264,10 +3291,10 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>50</v>
@@ -3279,24 +3306,24 @@
         <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3304,10 +3331,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
@@ -3316,18 +3343,20 @@
         <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3376,13 +3405,13 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
@@ -3391,24 +3420,24 @@
         <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>41</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3419,7 +3448,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>41</v>
@@ -3431,13 +3460,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3488,13 +3517,13 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>41</v>
@@ -3503,10 +3532,10 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -3520,7 +3549,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3531,7 +3560,7 @@
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
@@ -3543,13 +3572,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3600,28 +3629,28 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3632,11 +3661,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3655,17 +3684,15 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -3714,7 +3741,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3726,13 +3753,13 @@
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -3746,43 +3773,39 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3830,25 +3853,25 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -3862,18 +3885,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -3885,18 +3908,18 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -3920,11 +3943,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -3942,25 +3967,25 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -3978,26 +4003,26 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>209</v>
@@ -4005,8 +4030,12 @@
       <c r="L25" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4054,25 +4083,25 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4086,7 +4115,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4109,16 +4138,18 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4142,13 +4173,11 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4166,7 +4195,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4206,10 +4235,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>41</v>
@@ -4229,9 +4258,7 @@
       <c r="L27" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4283,10 +4310,10 @@
         <v>218</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -4295,24 +4322,24 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4335,13 +4362,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4368,11 +4395,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
@@ -4390,7 +4419,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4408,21 +4437,21 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>232</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4433,7 +4462,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>41</v>
@@ -4445,15 +4474,17 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4502,13 +4533,13 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
@@ -4517,24 +4548,24 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4557,13 +4588,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4590,13 +4621,11 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4614,7 +4643,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4632,21 +4661,21 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4666,16 +4695,16 @@
         <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4726,7 +4755,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4744,21 +4773,21 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4781,13 +4810,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4838,7 +4867,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4853,24 +4882,24 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4890,16 +4919,16 @@
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4950,7 +4979,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4968,21 +4997,21 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4993,7 +5022,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>41</v>
@@ -5005,13 +5034,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5062,13 +5091,13 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
@@ -5077,24 +5106,24 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5105,7 +5134,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>41</v>
@@ -5117,13 +5146,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5174,13 +5203,13 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
@@ -5189,24 +5218,24 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5229,17 +5258,15 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5288,7 +5315,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5306,13 +5333,13 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5320,7 +5347,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5331,7 +5358,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5343,13 +5370,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5400,13 +5427,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5415,24 +5442,24 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5443,7 +5470,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -5455,15 +5482,17 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5512,25 +5541,25 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5544,18 +5573,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -5567,17 +5596,15 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5626,31 +5653,31 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5658,43 +5685,39 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
       </c>
@@ -5742,25 +5765,25 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
@@ -5774,18 +5797,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>41</v>
@@ -5797,15 +5820,17 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>292</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -5854,25 +5879,25 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
@@ -5886,39 +5911,43 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -5942,13 +5971,13 @@
         <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>41</v>
@@ -5966,39 +5995,39 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6006,10 +6035,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -6021,13 +6050,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6054,13 +6083,13 @@
         <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>41</v>
@@ -6078,13 +6107,13 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
@@ -6096,13 +6125,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6110,7 +6139,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6121,7 +6150,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6133,13 +6162,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6166,13 +6195,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6190,13 +6219,13 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6208,25 +6237,25 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6245,17 +6274,15 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>318</v>
+        <v>149</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6280,13 +6307,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6304,7 +6331,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6322,13 +6349,13 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>41</v>
+        <v>319</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6336,7 +6363,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6359,17 +6386,15 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6418,7 +6443,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6436,20 +6461,248 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="s" s="2">
+      <c r="K47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN46">
+  <autoFilter ref="A1:AN48">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6459,7 +6712,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI47">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -2759,7 +2759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>129</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>51</v>
@@ -3321,7 +3321,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>171</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="353">
   <si>
     <t>Path</t>
   </si>
@@ -343,7 +343,7 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
+    <t>Refill number of this prescription</t>
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
@@ -353,6 +353,71 @@
 </t>
   </si>
   <si>
+    <t>MedicationDispense.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex/StructureDefinition/DispenseRefill</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
     <t>MedicationDispense.modifierExtension</t>
   </si>
   <si>
@@ -521,13 +586,6 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -559,7 +617,7 @@
 </t>
   </si>
   <si>
-    <t>Who the dispense is for</t>
+    <t>The patient who is prescribed the medication</t>
   </si>
   <si>
     <t>A link to a resource representing the person or the group to whom the medication will be given.</t>
@@ -606,7 +664,7 @@
 </t>
   </si>
   <si>
-    <t>Information that supports the dispensing of the medication. Reference any US Core, HRex or PDex profile</t>
+    <t>Information that supports the dispensing of the medication. Reference any US Core, HRex or PDex profile.</t>
   </si>
   <si>
     <t>Additional information that supports the medication being dispensed.</t>
@@ -640,18 +698,6 @@
     <t>MedicationDispense.performer.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.performer.extension</t>
   </si>
   <si>
@@ -659,9 +705,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -802,7 +845,7 @@
     <t>MedicationDispense.daysSupply</t>
   </si>
   <si>
-    <t>Medication expressed as a timing amount</t>
+    <t>Medication expressed as a timing amount.</t>
   </si>
   <si>
     <t>The amount of medication expressed as a timing amount.</t>
@@ -1226,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1245,7 +1288,7 @@
     <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1262,7 +1305,7 @@
     <col min="25" max="25" width="74.7421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="48.34765625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2423,39 +2466,35 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>41</v>
       </c>
@@ -2503,25 +2542,25 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
@@ -2535,7 +2574,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2546,7 +2585,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>41</v>
@@ -2558,17 +2597,15 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>41</v>
@@ -2605,16 +2642,16 @@
         <v>41</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>114</v>
@@ -2629,19 +2666,19 @@
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>41</v>
@@ -2649,7 +2686,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2657,10 +2694,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>41</v>
@@ -2672,22 +2709,24 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>41</v>
@@ -2729,25 +2768,25 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>41</v>
@@ -2759,9 +2798,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2769,32 +2808,30 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2819,32 +2856,32 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>50</v>
@@ -2856,16 +2893,16 @@
         <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -2873,9 +2910,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>41</v>
       </c>
@@ -2896,13 +2935,13 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2929,13 +2968,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -2953,7 +2992,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2968,10 +3007,10 @@
         <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -2985,41 +3024,43 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
       </c>
@@ -3043,11 +3084,13 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -3065,25 +3108,25 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -3097,7 +3140,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3105,10 +3148,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>41</v>
@@ -3117,19 +3160,19 @@
         <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3155,35 +3198,37 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>41</v>
@@ -3192,37 +3237,35 @@
         <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>167</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>41</v>
@@ -3231,20 +3274,18 @@
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3269,11 +3310,13 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -3291,13 +3334,13 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
@@ -3306,24 +3349,24 @@
         <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>167</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3340,22 +3383,22 @@
         <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3381,13 +3424,11 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3405,10 +3446,10 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>50</v>
@@ -3420,24 +3461,24 @@
         <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3460,13 +3501,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3493,13 +3534,13 @@
         <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
@@ -3517,7 +3558,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3532,10 +3573,10 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -3549,7 +3590,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3560,7 +3601,7 @@
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
@@ -3572,15 +3613,17 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3605,13 +3648,11 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
@@ -3629,13 +3670,13 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
@@ -3647,10 +3688,10 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3661,7 +3702,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3669,10 +3710,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -3681,18 +3722,20 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -3717,37 +3760,35 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
@@ -3756,32 +3797,34 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>50</v>
@@ -3793,18 +3836,20 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3829,13 +3874,11 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -3853,10 +3896,10 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3865,59 +3908,59 @@
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3967,75 +4010,71 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4083,25 +4122,25 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4115,7 +4154,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4126,7 +4165,7 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>41</v>
@@ -4138,18 +4177,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4173,11 +4210,13 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4195,13 +4234,13 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
@@ -4213,10 +4252,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4227,7 +4266,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4235,10 +4274,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>41</v>
@@ -4250,13 +4289,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4307,13 +4346,13 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -4322,10 +4361,10 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -4339,7 +4378,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4362,13 +4401,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4419,7 +4458,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4431,13 +4470,13 @@
         <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4451,11 +4490,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4474,16 +4513,16 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4533,7 +4572,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4545,59 +4584,63 @@
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4621,11 +4664,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4643,39 +4688,39 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4698,16 +4743,18 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
@@ -4731,13 +4778,11 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -4755,7 +4800,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4773,21 +4818,21 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4795,7 +4840,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>50</v>
@@ -4810,13 +4855,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4867,10 +4912,10 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>50</v>
@@ -4882,10 +4927,10 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -4894,12 +4939,12 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>254</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4919,16 +4964,16 @@
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4979,7 +5024,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4997,21 +5042,21 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5022,7 +5067,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>41</v>
@@ -5034,15 +5079,17 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5091,13 +5138,13 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
@@ -5106,24 +5153,24 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5146,13 +5193,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5179,13 +5226,11 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5203,7 +5248,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5221,21 +5266,21 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5246,7 +5291,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -5258,13 +5303,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5315,13 +5360,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5333,21 +5378,21 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5358,7 +5403,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5370,13 +5415,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5427,13 +5472,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5442,10 +5487,10 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -5454,12 +5499,12 @@
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5470,7 +5515,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -5479,20 +5524,18 @@
         <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5541,13 +5584,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5559,21 +5602,21 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5596,13 +5639,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5653,7 +5696,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5668,24 +5711,24 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5708,13 +5751,13 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5765,7 +5808,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5777,31 +5820,31 @@
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5820,17 +5863,15 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -5879,7 +5920,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5891,19 +5932,19 @@
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -5911,11 +5952,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5928,26 +5969,22 @@
         <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -5995,7 +6032,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6007,13 +6044,13 @@
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>93</v>
+        <v>299</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6022,7 +6059,7 @@
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -6035,10 +6072,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -6058,7 +6095,9 @@
       <c r="L43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6110,10 +6149,10 @@
         <v>301</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
@@ -6125,7 +6164,7 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6137,9 +6176,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6153,7 +6192,7 @@
         <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -6162,13 +6201,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6195,13 +6234,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6219,7 +6258,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6237,7 +6276,7 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6246,12 +6285,12 @@
         <v>311</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>312</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6262,7 +6301,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>41</v>
@@ -6274,13 +6313,13 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6307,13 +6346,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6331,31 +6370,31 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>318</v>
+        <v>111</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6363,11 +6402,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6386,15 +6425,17 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>321</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6443,7 +6484,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>320</v>
+        <v>114</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6455,19 +6496,19 @@
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>324</v>
+        <v>111</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6475,11 +6516,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6492,24 +6533,26 @@
         <v>41</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>224</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
       </c>
@@ -6557,7 +6600,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6569,13 +6612,13 @@
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>332</v>
+        <v>93</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -6587,9 +6630,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6597,13 +6640,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -6612,17 +6655,15 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -6671,13 +6712,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -6689,20 +6730,584 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AL51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN48">
+  <autoFilter ref="A1:AN53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6712,7 +7317,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI47">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="353">
   <si>
     <t>Path</t>
   </si>
@@ -343,7 +343,7 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
+    <t>Refill number of this prescription</t>
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
@@ -353,6 +353,71 @@
 </t>
   </si>
   <si>
+    <t>MedicationDispense.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex/StructureDefinition/DispenseRefill</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
     <t>MedicationDispense.modifierExtension</t>
   </si>
   <si>
@@ -521,13 +586,6 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -606,7 +664,7 @@
 </t>
   </si>
   <si>
-    <t>Information that supports the dispensing of the medication. Reference any US Core, HRex or PDex profile</t>
+    <t>Information that supports the dispensing of the medication. Reference any US Core, HRex or PDex profile.</t>
   </si>
   <si>
     <t>Additional information that supports the medication being dispensed.</t>
@@ -640,18 +698,6 @@
     <t>MedicationDispense.performer.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.performer.extension</t>
   </si>
   <si>
@@ -659,9 +705,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -802,7 +845,7 @@
     <t>MedicationDispense.daysSupply</t>
   </si>
   <si>
-    <t>Medication expressed as a timing amount</t>
+    <t>Medication expressed as a timing amount.</t>
   </si>
   <si>
     <t>The amount of medication expressed as a timing amount.</t>
@@ -1226,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1245,7 +1288,7 @@
     <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1262,7 +1305,7 @@
     <col min="25" max="25" width="74.7421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="48.34765625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2423,39 +2466,35 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>41</v>
       </c>
@@ -2503,25 +2542,25 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
@@ -2535,7 +2574,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2546,7 +2585,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>41</v>
@@ -2558,17 +2597,15 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>41</v>
@@ -2605,16 +2642,16 @@
         <v>41</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>114</v>
@@ -2629,19 +2666,19 @@
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>41</v>
@@ -2649,7 +2686,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2657,10 +2694,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>41</v>
@@ -2672,22 +2709,24 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>41</v>
@@ -2729,25 +2768,25 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>41</v>
@@ -2759,9 +2798,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2769,32 +2808,30 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2819,32 +2856,32 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>50</v>
@@ -2856,16 +2893,16 @@
         <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -2873,9 +2910,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>41</v>
       </c>
@@ -2896,13 +2935,13 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2929,13 +2968,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -2953,7 +2992,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2968,10 +3007,10 @@
         <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -2985,41 +3024,43 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
       </c>
@@ -3043,11 +3084,13 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -3065,25 +3108,25 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -3097,7 +3140,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3105,10 +3148,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>41</v>
@@ -3117,19 +3160,19 @@
         <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3155,35 +3198,37 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>41</v>
@@ -3192,37 +3237,35 @@
         <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>167</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>41</v>
@@ -3231,20 +3274,18 @@
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3269,11 +3310,13 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -3291,13 +3334,13 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
@@ -3306,24 +3349,24 @@
         <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>167</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3340,22 +3383,22 @@
         <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3381,13 +3424,11 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3405,10 +3446,10 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>50</v>
@@ -3420,24 +3461,24 @@
         <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3460,13 +3501,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3493,13 +3534,13 @@
         <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
@@ -3517,7 +3558,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3532,10 +3573,10 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -3549,7 +3590,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3560,7 +3601,7 @@
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
@@ -3572,15 +3613,17 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3605,13 +3648,11 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
@@ -3629,13 +3670,13 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
@@ -3647,10 +3688,10 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3661,7 +3702,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3669,10 +3710,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -3681,18 +3722,20 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -3717,37 +3760,35 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
@@ -3756,32 +3797,34 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>50</v>
@@ -3793,18 +3836,20 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3829,13 +3874,11 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -3853,10 +3896,10 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3865,59 +3908,59 @@
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3967,75 +4010,71 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4083,25 +4122,25 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4115,7 +4154,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4126,7 +4165,7 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>41</v>
@@ -4138,18 +4177,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4173,11 +4210,13 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4195,13 +4234,13 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
@@ -4213,10 +4252,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4227,7 +4266,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4235,10 +4274,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>41</v>
@@ -4250,13 +4289,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4307,13 +4346,13 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -4322,10 +4361,10 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -4339,7 +4378,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4362,13 +4401,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4419,7 +4458,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4431,13 +4470,13 @@
         <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4451,11 +4490,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4474,16 +4513,16 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4533,7 +4572,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4545,59 +4584,63 @@
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4621,11 +4664,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4643,39 +4688,39 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4698,16 +4743,18 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
@@ -4731,13 +4778,11 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -4755,7 +4800,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4773,21 +4818,21 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4795,7 +4840,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>50</v>
@@ -4810,13 +4855,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4867,10 +4912,10 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>50</v>
@@ -4882,10 +4927,10 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -4894,12 +4939,12 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>254</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4919,16 +4964,16 @@
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4979,7 +5024,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4997,21 +5042,21 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5022,7 +5067,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>41</v>
@@ -5034,15 +5079,17 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5091,13 +5138,13 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
@@ -5106,24 +5153,24 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5146,13 +5193,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5179,13 +5226,11 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5203,7 +5248,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5221,21 +5266,21 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5246,7 +5291,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -5258,13 +5303,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5315,13 +5360,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5333,21 +5378,21 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5358,7 +5403,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5370,13 +5415,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5427,13 +5472,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5442,10 +5487,10 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -5454,12 +5499,12 @@
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5470,7 +5515,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -5479,20 +5524,18 @@
         <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5541,13 +5584,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5559,21 +5602,21 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5596,13 +5639,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5653,7 +5696,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5668,24 +5711,24 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5708,13 +5751,13 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5765,7 +5808,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5777,31 +5820,31 @@
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5820,17 +5863,15 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -5879,7 +5920,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5891,19 +5932,19 @@
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -5911,11 +5952,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5928,26 +5969,22 @@
         <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -5995,7 +6032,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6007,13 +6044,13 @@
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>93</v>
+        <v>299</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6022,7 +6059,7 @@
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -6035,10 +6072,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -6058,7 +6095,9 @@
       <c r="L43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6110,10 +6149,10 @@
         <v>301</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
@@ -6125,7 +6164,7 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6139,7 +6178,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6162,13 +6201,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6195,13 +6234,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6219,7 +6258,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6237,7 +6276,7 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6246,12 +6285,12 @@
         <v>311</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>312</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6262,7 +6301,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>41</v>
@@ -6274,13 +6313,13 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6307,13 +6346,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6331,31 +6370,31 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>318</v>
+        <v>111</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6363,11 +6402,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6386,15 +6425,17 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>321</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6443,7 +6484,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>320</v>
+        <v>114</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6455,19 +6496,19 @@
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>324</v>
+        <v>111</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6475,11 +6516,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6492,24 +6533,26 @@
         <v>41</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>224</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
       </c>
@@ -6557,7 +6600,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6569,13 +6612,13 @@
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>332</v>
+        <v>93</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -6589,7 +6632,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6597,10 +6640,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>41</v>
@@ -6612,17 +6655,15 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -6671,13 +6712,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -6689,20 +6730,584 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AL51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN48">
+  <autoFilter ref="A1:AN53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6712,7 +7317,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI47">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -617,7 +617,7 @@
 </t>
   </si>
   <si>
-    <t>Who the dispense is for</t>
+    <t>The patient who is prescribed the medication</t>
   </si>
   <si>
     <t>A link to a resource representing the person or the group to whom the medication will be given.</t>
@@ -6176,7 +6176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>307</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -6630,7 +6630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>315</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T08:27:17-05:00</t>
+    <t>2024-01-03T13:33:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T13:33:40-05:00</t>
+    <t>2024-01-04T12:52:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T12:52:42-05:00</t>
+    <t>2024-01-04T13:27:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T13:27:46-05:00</t>
+    <t>2024-01-04T13:45:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T13:45:55-05:00</t>
+    <t>2024-01-04T18:04:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T18:04:41-05:00</t>
+    <t>2024-01-04T18:53:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-pdex-medicationdispense.xlsx
+++ b/output/StructureDefinition-pdex-medicationdispense.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T18:53:48-05:00</t>
+    <t>2024-01-05T09:17:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
